--- a/jn_test/test.xlsx
+++ b/jn_test/test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\apps\nur_fajrina\jn_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python_apps\apps_nurfajrina\jn_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4613A263-708A-46EC-ACF1-8F71644D9EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BAC16B-2F01-4704-A729-540696E27B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{D956186F-AD55-45B9-B222-A2A2D16F3C8E}"/>
   </bookViews>
@@ -34,38 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Jenis Ikan</t>
-  </si>
-  <si>
-    <t>Tahun</t>
-  </si>
-  <si>
-    <t>Bulan</t>
-  </si>
-  <si>
-    <t>Berat (Ton)</t>
-  </si>
-  <si>
-    <t>Lokasi Penjualan</t>
-  </si>
-  <si>
-    <t>Stok Harian (Kg)</t>
-  </si>
-  <si>
-    <t>Terjual Harian (Kg)</t>
-  </si>
-  <si>
-    <t>Kategori Pemasaran</t>
-  </si>
-  <si>
-    <t>Status Penjualan</t>
-  </si>
-  <si>
     <t>Udang</t>
   </si>
   <si>
@@ -78,9 +51,6 @@
     <t>Jual langsung ke masyarakat</t>
   </si>
   <si>
-    <t>Tidak Laris</t>
-  </si>
-  <si>
     <t>Bawal</t>
   </si>
   <si>
@@ -90,9 +60,6 @@
     <t>Suplai ke FNB atau pelaku bisnis lain</t>
   </si>
   <si>
-    <t>Laris</t>
-  </si>
-  <si>
     <t>Tongkol</t>
   </si>
   <si>
@@ -145,6 +112,30 @@
   </si>
   <si>
     <t>Kakap</t>
+  </si>
+  <si>
+    <t>jenis_ikan</t>
+  </si>
+  <si>
+    <t>tahun</t>
+  </si>
+  <si>
+    <t>bulan</t>
+  </si>
+  <si>
+    <t>berat</t>
+  </si>
+  <si>
+    <t>lokasi</t>
+  </si>
+  <si>
+    <t>stok</t>
+  </si>
+  <si>
+    <t>terjual_harian</t>
+  </si>
+  <si>
+    <t>kategori_pemasaran</t>
   </si>
 </sst>
 </file>
@@ -585,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C6F591-9C3C-4FC2-8873-AC86FB634122}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,59 +593,55 @@
     <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C2" s="5">
         <v>2022</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E2" s="5">
         <v>0.7</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G2" s="5">
         <v>50</v>
@@ -663,30 +650,27 @@
         <v>128</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C3" s="5">
         <v>2020</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E3" s="5">
         <v>0.9</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G3" s="5">
         <v>118</v>
@@ -695,30 +679,27 @@
         <v>84</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C4" s="5">
         <v>2022</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E4" s="5">
         <v>2.7</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G4" s="5">
         <v>53</v>
@@ -727,30 +708,27 @@
         <v>105</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C5" s="5">
         <v>2021</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E5" s="5">
         <v>2</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G5" s="5">
         <v>65</v>
@@ -759,30 +737,27 @@
         <v>90</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C6" s="5">
         <v>2022</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E6" s="5">
         <v>0.5</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G6" s="5">
         <v>73</v>
@@ -791,30 +766,27 @@
         <v>64</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5">
         <v>2020</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E7" s="5">
         <v>0.8</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G7" s="5">
         <v>129</v>
@@ -823,30 +795,27 @@
         <v>55</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C8" s="5">
         <v>2020</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E8" s="5">
         <v>2.2000000000000002</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G8" s="5">
         <v>51</v>
@@ -855,30 +824,27 @@
         <v>89</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C9" s="5">
         <v>2021</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E9" s="5">
         <v>0.5</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G9" s="5">
         <v>177</v>
@@ -887,30 +853,27 @@
         <v>38</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C10" s="5">
         <v>2022</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E10" s="5">
         <v>0.9</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G10" s="5">
         <v>133</v>
@@ -919,30 +882,27 @@
         <v>127</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C11" s="5">
         <v>2022</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E11" s="5">
         <v>1.9</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G11" s="5">
         <v>189</v>
@@ -951,30 +911,27 @@
         <v>110</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C12" s="5">
         <v>2021</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E12" s="5">
         <v>2.2000000000000002</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G12" s="5">
         <v>173</v>
@@ -983,30 +940,27 @@
         <v>109</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C13" s="5">
         <v>2022</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E13" s="5">
         <v>2.1</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G13" s="5">
         <v>82</v>
@@ -1015,30 +969,27 @@
         <v>38</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C14" s="5">
         <v>2022</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E14" s="5">
         <v>1.1000000000000001</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G14" s="5">
         <v>150</v>
@@ -1047,30 +998,27 @@
         <v>58</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C15" s="5">
         <v>2020</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E15" s="5">
         <v>2.2999999999999998</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G15" s="5">
         <v>61</v>
@@ -1079,30 +1027,27 @@
         <v>145</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C16" s="5">
         <v>2022</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E16" s="5">
         <v>1.1000000000000001</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G16" s="5">
         <v>116</v>
@@ -1111,30 +1056,27 @@
         <v>145</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C17" s="5">
         <v>2022</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E17" s="5">
         <v>1.3</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G17" s="5">
         <v>114</v>
@@ -1143,30 +1085,27 @@
         <v>77</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C18" s="5">
         <v>2021</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E18" s="5">
         <v>2.4</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G18" s="5">
         <v>123</v>
@@ -1175,30 +1114,27 @@
         <v>80</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C19" s="5">
         <v>2021</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E19" s="5">
         <v>2.1</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G19" s="5">
         <v>92</v>
@@ -1207,30 +1143,27 @@
         <v>146</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C20" s="5">
         <v>2023</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E20" s="5">
         <v>2.6</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G20" s="5">
         <v>93</v>
@@ -1239,30 +1172,27 @@
         <v>124</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C21" s="5">
         <v>2020</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E21" s="5">
         <v>2.1</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G21" s="5">
         <v>78</v>
@@ -1271,30 +1201,27 @@
         <v>20</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C22" s="5">
         <v>2022</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E22" s="5">
         <v>1.9</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G22" s="5">
         <v>190</v>
@@ -1303,30 +1230,27 @@
         <v>111</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C23" s="5">
         <v>2022</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E23" s="5">
         <v>0.7</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G23" s="5">
         <v>61</v>
@@ -1335,30 +1259,27 @@
         <v>132</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C24" s="5">
         <v>2023</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E24" s="5">
         <v>1.4</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G24" s="5">
         <v>144</v>
@@ -1367,30 +1288,27 @@
         <v>75</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C25" s="5">
         <v>2022</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E25" s="5">
         <v>1.2</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G25" s="5">
         <v>95</v>
@@ -1399,30 +1317,27 @@
         <v>136</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C26" s="5">
         <v>2020</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E26" s="5">
         <v>1.1000000000000001</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G26" s="5">
         <v>179</v>
@@ -1431,30 +1346,27 @@
         <v>77</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C27" s="5">
         <v>2023</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E27" s="5">
         <v>2.9</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G27" s="5">
         <v>84</v>
@@ -1463,30 +1375,27 @@
         <v>63</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C28" s="5">
         <v>2020</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E28" s="5">
         <v>1.5</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G28" s="5">
         <v>130</v>
@@ -1495,30 +1404,27 @@
         <v>80</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C29" s="5">
         <v>2023</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E29" s="5">
         <v>2.7</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G29" s="5">
         <v>139</v>
@@ -1527,30 +1433,27 @@
         <v>66</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C30" s="5">
         <v>2023</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E30" s="5">
         <v>2.1</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G30" s="5">
         <v>57</v>
@@ -1559,30 +1462,27 @@
         <v>99</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C31" s="5">
         <v>2021</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E31" s="5">
         <v>2.5</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G31" s="5">
         <v>142</v>
@@ -1591,13 +1491,10 @@
         <v>137</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
     </row>
   </sheetData>
